--- a/src/Erc.Households.PrintBills.Api/Templates/bill_gas.xlsx
+++ b/src/Erc.Households.PrintBills.Api/Templates/bill_gas.xlsx
@@ -858,6 +858,159 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,9 +1023,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,9 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -936,58 +1083,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,147 +1156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1593,7 +1593,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,402 +1653,384 @@
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="e">
+      <c r="A4" s="14" t="e">
         <f>bill_gas_companyfullname</f>
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="87" t="e">
+      <c r="H4" s="20" t="e">
         <f>bill_gas_CompanyStateRegistryCode</f>
         <v>#NAME?</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89" t="e">
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22" t="e">
         <f>bill_gas_companyfullname</f>
         <v>#NAME?</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="95" t="e">
+      <c r="H5" s="28" t="e">
         <f>bill_gas_BranchOfficeBankFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="94"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="99" t="e">
+      <c r="B6" s="32" t="e">
         <f>bill_gas_CompanyAddress</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="104" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107" t="e">
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41" t="e">
         <f>bill_gas_CompanyAddress</f>
         <v>#NAME?</v>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="108" t="e">
+      <c r="A7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="42" t="e">
         <f>bill_gas_BranchOfficeIban</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="76" t="e">
+      <c r="B8" s="58" t="e">
         <f>bill_gas_AccountingPointName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="78" t="e">
+      <c r="E8" s="60" t="e">
         <f>bill_gas_OwnerFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="22" t="e">
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="12" t="e">
         <f>"О/р: "&amp;bill_gas_AccountingPointName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="e">
+      <c r="B9" s="70" t="e">
         <f>bill_gas_AccountingPointAddress</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22" t="e">
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="12" t="e">
         <f>"ПІБ: "&amp;bill_gas_OwnerFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="e">
+      <c r="A10" s="45" t="e">
         <f>"Рахунок за спожитий природний газ за " &amp;bill_gas_PeriodShortDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="22" t="e">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="12" t="e">
         <f>bill_gas_AccountingPointAddress</f>
         <v>#NAME?</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="16" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="16" t="e">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="13" t="e">
         <f>"за "&amp;bill_gas_PeriodShortDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="6" t="e">
         <f>bill_gas_AccountingPointDebtHistory</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="7" t="e">
         <f>bill_gas_PaymentSumByPeriod</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="33" t="e">
+      <c r="L13" s="79"/>
+      <c r="M13" s="82" t="e">
         <f>bill_gas_AccountingPointDebt</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="34"/>
+      <c r="N13" s="83"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="46" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="50" t="s">
+      <c r="G14" s="95"/>
+      <c r="H14" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="54" t="s">
+      <c r="I14" s="99"/>
+      <c r="J14" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="29" t="e">
+      <c r="A15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="78" t="e">
         <f>bill_gas_CompanyShortName &amp;" Email: "&amp;bill_gas_CompanyEmail&amp; ", "&amp;bill_gas_CompanySite&amp;", тел." &amp;bill_gas_CompanyPhone</f>
         <v>#NAME?</v>
       </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="30"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="79"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="59" t="e">
+      <c r="A16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="106" t="e">
         <f>bill_gas_TariffRate</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="65" t="e">
+      <c r="G16" s="107"/>
+      <c r="H16" s="46" t="e">
         <f>bill_gas_InvoiceTotalUnits</f>
         <v>#NAME?</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="70" t="e">
+      <c r="I16" s="47"/>
+      <c r="J16" s="52" t="e">
         <f>bill_gas_InvoiceTotalAmountDue</f>
         <v>#NAME?</v>
       </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="105"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="12" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
       <c r="J19" s="8" t="e">
         <f>bill_gas_AccountingPointDebt</f>
         <v>#NAME?</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:G7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A10:J12"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:J8"/>
     <mergeCell ref="K17:N20"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="K12:N12"/>
@@ -2065,12 +2047,27 @@
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K15:N16"/>
     <mergeCell ref="F16:G18"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:G7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A10:J12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="22" max="16383" man="1"/>
-  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/Erc.Households.PrintBills.Api/Templates/bill_gas.xlsx
+++ b/src/Erc.Households.PrintBills.Api/Templates/bill_gas.xlsx
@@ -56,39 +56,6 @@
     <t>нараховано за звітний період</t>
   </si>
   <si>
-    <r>
-      <t>Тариф з ПДВ, 
-грн./м</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Спожито, 
-м</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
     <t>Сума, 
 грн</t>
   </si>
@@ -127,6 +94,39 @@
   <si>
     <t>ВАШ НАДІЙНИЙ ПОСТАЧАЛЬНИК ЕНЕРГОНОСІЇВ</t>
   </si>
+  <si>
+    <r>
+      <t>Тариф з ПДВ, 
+грн./м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Спожито, 
+м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,33 +205,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9.5"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -239,27 +212,6 @@
     </font>
     <font>
       <sz val="9.5"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="204"/>
@@ -301,6 +253,57 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -829,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -837,325 +840,331 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,7 +1195,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>119429</xdr:rowOff>
     </xdr:to>
@@ -1593,244 +1602,245 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="e">
+      <c r="A4" s="40" t="e">
         <f>bill_gas_companyfullname</f>
         <v>#NAME?</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="20" t="e">
+        <v>14</v>
+      </c>
+      <c r="H4" s="46" t="e">
         <f>bill_gas_CompanyStateRegistryCode</f>
         <v>#NAME?</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22" t="e">
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48" t="e">
         <f>bill_gas_companyfullname</f>
         <v>#NAME?</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="28" t="e">
+      <c r="H5" s="54" t="e">
         <f>bill_gas_BranchOfficeBankFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="e">
+      <c r="B6" s="58" t="e">
         <f>bill_gas_CompanyAddress</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="38" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41" t="e">
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66" t="e">
         <f>bill_gas_CompanyAddress</f>
         <v>#NAME?</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="42" t="e">
+      <c r="A7" s="57"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="67" t="e">
         <f>bill_gas_BranchOfficeIban</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="58" t="e">
+      <c r="B8" s="105" t="e">
         <f>bill_gas_AccountingPointName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="60" t="e">
+      <c r="E8" s="108" t="e">
         <f>bill_gas_OwnerFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="12" t="e">
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="17" t="e">
         <f>"О/р: "&amp;bill_gas_AccountingPointName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="70" t="e">
+      <c r="B9" s="112" t="e">
         <f>bill_gas_AccountingPointAddress</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="12" t="e">
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="17" t="e">
         <f>"ПІБ: "&amp;bill_gas_OwnerFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="e">
+      <c r="A10" s="70" t="e">
         <f>"Рахунок за спожитий природний газ за " &amp;bill_gas_PeriodShortDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="12" t="e">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="17" t="e">
         <f>bill_gas_AccountingPointAddress</f>
         <v>#NAME?</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="13" t="s">
         <v>5</v>
       </c>
@@ -1839,16 +1849,16 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="13" t="e">
         <f>"за "&amp;bill_gas_PeriodShortDate</f>
         <v>#NAME?</v>
@@ -1858,179 +1868,197 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="6" t="e">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="3" t="e">
         <f>bill_gas_AccountingPointDebtHistory</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="7" t="e">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="4" t="e">
         <f>bill_gas_PaymentSumByPeriod</f>
         <v>#NAME?</v>
       </c>
-      <c r="K13" s="78" t="s">
+      <c r="K13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="82" t="e">
+      <c r="L13" s="25"/>
+      <c r="M13" s="28" t="e">
         <f>bill_gas_AccountingPointDebt</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="83"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="94" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="78" t="e">
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="24" t="e">
         <f>bill_gas_CompanyShortName &amp;" Email: "&amp;bill_gas_CompanyEmail&amp; ", "&amp;bill_gas_CompanySite&amp;", тел." &amp;bill_gas_CompanyPhone</f>
         <v>#NAME?</v>
       </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="79"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="25"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="106" t="e">
+      <c r="A16" s="90"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="72" t="e">
         <f>bill_gas_TariffRate</f>
         <v>#NAME?</v>
       </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="46" t="e">
+      <c r="G16" s="73"/>
+      <c r="H16" s="74" t="e">
         <f>bill_gas_InvoiceTotalUnits</f>
         <v>#NAME?</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52" t="e">
+      <c r="I16" s="75"/>
+      <c r="J16" s="76" t="e">
         <f>bill_gas_InvoiceTotalAmountDue</f>
         <v>#NAME?</v>
       </c>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="105"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="8" t="e">
+      <c r="A19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="5" t="e">
         <f>bill_gas_AccountingPointDebt</f>
         <v>#NAME?</v>
       </c>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
+      <c r="A20" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A4:F5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:G7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:N7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A10:J12"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:J8"/>
     <mergeCell ref="K17:N20"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="K12:N12"/>
@@ -2047,27 +2075,9 @@
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K15:N16"/>
     <mergeCell ref="F16:G18"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A4:F5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:G7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A10:J12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/Erc.Households.PrintBills.Api/Templates/bill_gas.xlsx
+++ b/src/Erc.Households.PrintBills.Api/Templates/bill_gas.xlsx
@@ -10,8 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="bill_gas">Sheet1!$A$4:$N$22</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
+    <definedName name="bill_gas">Sheet1!$A$1:$O$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -92,9 +91,6 @@
     <t>Код ЄДРПОУ:</t>
   </si>
   <si>
-    <t>ВАШ НАДІЙНИЙ ПОСТАЧАЛЬНИК ЕНЕРГОНОСІЇВ</t>
-  </si>
-  <si>
     <r>
       <t>Тариф з ПДВ, 
 грн./м</t>
@@ -127,6 +123,9 @@
       <t>3</t>
     </r>
   </si>
+  <si>
+    <t>Рахунок за спожитий природний газ за {{bill_gas_PeriodShortDate}}</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,22 +238,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFFC000"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -300,6 +283,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -314,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -828,11 +820,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -849,10 +863,191 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -864,9 +1059,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,8 +1068,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -912,19 +1107,76 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -936,235 +1188,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,155 +1224,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>21980</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>21982</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>119429</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1" descr="C:\Users\Goncharuk-RP\Desktop\ZHOEK.PNG"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="13461" r="12685"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="21980" y="21982"/>
-          <a:ext cx="1092445" cy="602272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>14656</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>285747</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>432288</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>300404</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая соединительная линия 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1233856" y="457197"/>
-          <a:ext cx="5904032" cy="14657"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="44450"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5864</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>417633</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161192</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1225064" y="152400"/>
-          <a:ext cx="5898169" cy="8792"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="44450">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1599,10 +1492,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,474 +1503,491 @@
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="e">
+        <f>bill_gas_companyfullname</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="23" t="e">
+        <f>bill_gas_CompanyStateRegistryCode</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25" t="e">
+        <f>bill_gas_companyfullname</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+    <row r="2" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="33" t="e">
+        <f>bill_gas_BranchOfficeBankFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:14" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="e">
+        <f>bill_gas_CompanyAddress</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46" t="e">
+        <f>bill_gas_CompanyAddress</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="e">
-        <f>bill_gas_companyfullname</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B4" s="41"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="46" t="e">
-        <f>bill_gas_CompanyStateRegistryCode</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48" t="e">
-        <f>bill_gas_companyfullname</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="47" t="e">
+        <f>bill_gas_BranchOfficeIban</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
     </row>
-    <row r="5" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="54" t="e">
-        <f>bill_gas_BranchOfficeBankFullName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="62" t="e">
+        <f>bill_gas_AccountingPointName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="64" t="e">
+        <f>bill_gas_OwnerFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="15" t="e">
+        <f>"О/р: "&amp;bill_gas_AccountingPointName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58" t="e">
-        <f>bill_gas_CompanyAddress</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="66" t="e">
-        <f>bill_gas_CompanyAddress</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
+      <c r="B6" s="75" t="e">
+        <f>bill_gas_AccountingPointAddress</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="15" t="e">
+        <f>"ПІБ: "&amp;bill_gas_OwnerFullName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="67" t="e">
-        <f>bill_gas_BranchOfficeIban</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="15" t="e">
+        <f>bill_gas_AccountingPointAddress</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="105" t="e">
-        <f>bill_gas_AccountingPointName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="108" t="e">
-        <f>bill_gas_OwnerFullName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="17" t="e">
-        <f>"О/р: "&amp;bill_gas_AccountingPointName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="112" t="e">
-        <f>bill_gas_AccountingPointAddress</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="17" t="e">
-        <f>"ПІБ: "&amp;bill_gas_OwnerFullName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="16" t="e">
+        <f>"за "&amp;bill_gas_PeriodShortDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="e">
-        <f>"Рахунок за спожитий природний газ за " &amp;bill_gas_PeriodShortDate</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="17" t="e">
-        <f>bill_gas_AccountingPointAddress</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="3" t="e">
+        <f>bill_gas_AccountingPointDebtHistory</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="4" t="e">
+        <f>bill_gas_PaymentSumByPeriod</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="84"/>
+      <c r="M10" s="87" t="e">
+        <f>bill_gas_AccountingPointDebt</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="88"/>
+      <c r="O10" s="89"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="103"/>
+      <c r="H11" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="107"/>
+      <c r="J11" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="92"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="13" t="e">
-        <f>"за "&amp;bill_gas_PeriodShortDate</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="83" t="e">
+        <f>bill_gas_CompanyShortName &amp;" Email: "&amp;bill_gas_CompanyEmail&amp; ", "&amp;bill_gas_CompanySite&amp;", тел." &amp;bill_gas_CompanyPhone</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="84"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="3" t="e">
-        <f>bill_gas_AccountingPointDebtHistory</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="4" t="e">
-        <f>bill_gas_PaymentSumByPeriod</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="28" t="e">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="115" t="e">
+        <f>bill_gas_TariffRate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G13" s="116"/>
+      <c r="H13" s="50" t="e">
+        <f>bill_gas_InvoiceTotalUnits</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I13" s="51"/>
+      <c r="J13" s="56" t="e">
+        <f>bill_gas_InvoiceTotalAmountDue</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K13" s="112"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="114"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="5" t="e">
         <f>bill_gas_AccountingPointDebt</f>
         <v>#NAME?</v>
       </c>
-      <c r="N13" s="29"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="31"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="24" t="e">
-        <f>bill_gas_CompanyShortName &amp;" Email: "&amp;bill_gas_CompanyEmail&amp; ", "&amp;bill_gas_CompanySite&amp;", тел." &amp;bill_gas_CompanyPhone</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="25"/>
+    <row r="18" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="72" t="e">
-        <f>bill_gas_TariffRate</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74" t="e">
-        <f>bill_gas_InvoiceTotalUnits</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76" t="e">
-        <f>bill_gas_InvoiceTotalAmountDue</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
+    <row r="19" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="5" t="e">
-        <f>bill_gas_AccountingPointDebt</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+    <row r="20" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A4:F5"/>
+    <mergeCell ref="K14:O17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="A11:E15"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="H11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K12:O13"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="H13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:O2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:O4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:N5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:G7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:N7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="A10:J12"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K17:N20"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="A14:E18"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K15:N16"/>
-    <mergeCell ref="F16:G18"/>
+    <mergeCell ref="A7:J9"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>